--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -504,7 +504,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>SituationOperationnelle.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication}
 </t>
   </si>
   <si>
@@ -646,7 +646,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/ModeExercice-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.competenceSpecifique</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve"> La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/CompetenceSpecifique-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R243-CompetenceSpecifique?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.precisionHoraire</t>
@@ -298,7 +298,7 @@
     <t xml:space="preserve"> Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/CNAMAmeliSecteurConventionnement-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.optionContratAccesAuxSoins</t>
@@ -320,7 +320,7 @@
     <t>SituationOperationnelle.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -646,7 +646,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -661,7 +661,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.44140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
+    <t>Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant de la situation opérationnelle, unique et persistant au niveau national, obtenu par l’association de l’identifiant de l’offre opérationnelle suivi du caractère « / » puis de l’identifiant du professionnel.</t>
+    <t>Identifiant de la situation opérationnelle, unique et persistant au niveau national, obtenu par l’association de l’identifiant de l’offre opérationnelle suivi du caractère « / » puis de l’identifiant du professionnel.</t>
   </si>
   <si>
     <t>SituationOperationnelle.modeExerciceOffre</t>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le mode d'exercice correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
+    <t>Le mode d'exercice correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -276,7 +276,7 @@
     <t>SituationOperationnelle.competenceSpecifique</t>
   </si>
   <si>
-    <t xml:space="preserve"> La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
+    <t>La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R243-CompetenceSpecifique?vs</t>
@@ -289,13 +289,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Décrit le planning d'activité du professionnel.</t>
+    <t>Décrit le planning d'activité du professionnel.</t>
   </si>
   <si>
     <t>SituationOperationnelle.secteurConventionnement</t>
   </si>
   <si>
-    <t xml:space="preserve"> Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
+    <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
@@ -308,13 +308,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017.L’Option pratique tarifaire maîtrisée (OPTAM) est un dispositif proposé par l’Assurance Maladie aux médecins conventionnés ayant pour objectif principal de faciliter l’accès aux soins en limitant, sans les supprimer, les dépassements d’honoraires.Les médecins exerçant une spécialité chirurgicale ou de chirurgie obstétrique, qui ont réalisé au moins 50 actes de chirurgie ou d'obstérique ont la possibilité d'adhérer à l'Option pratique tarifaire maîtrisée chirurgie et obstétrique (OPTAM-CO).Synonyme : optionPratiqueTarifaireMaîtrisée</t>
+    <t>L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017.L’Option pratique tarifaire maîtrisée (OPTAM) est un dispositif proposé par l’Assurance Maladie aux médecins conventionnés ayant pour objectif principal de faciliter l’accès aux soins en limitant, sans les supprimer, les dépassements d’honoraires.Les médecins exerçant une spécialité chirurgicale ou de chirurgie obstétrique, qui ont réalisé au moins 50 actes de chirurgie ou d'obstérique ont la possibilité d'adhérer à l'Option pratique tarifaire maîtrisée chirurgie et obstétrique (OPTAM-CO).Synonyme : optionPratiqueTarifaireMaîtrisée</t>
   </si>
   <si>
     <t>SituationOperationnelle.carteVitaleAcceptee</t>
   </si>
   <si>
-    <t xml:space="preserve"> L’indicateur Carte Vitale acceptée précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas. 0 : pas de prise en charge de la carte vitale1 : prise en charge de la carte vitale.</t>
+    <t>L’indicateur Carte Vitale acceptée précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas. 0 : pas de prise en charge de la carte vitale1 : prise en charge de la carte vitale.</t>
   </si>
   <si>
     <t>SituationOperationnelle.telecommunication</t>
@@ -324,7 +324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
+    <t>Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,6 +325,16 @@
   </si>
   <si>
     <t>Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
+    <t>SituationOperationnelle.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -646,7 +656,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1677,6 +1687,106 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R23-ModeExercice/FHIR/TRE-R23-ModeExercice?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.competenceSpecifique</t>
@@ -279,7 +279,7 @@
     <t>La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R243-CompetenceSpecifique?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R243-CompetenceSpecifique/FHIR/TRE-R243-CompetenceSpecifique?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.precisionHoraire</t>
@@ -298,7 +298,7 @@
     <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R282-CNAMAmeliSecteurConventionnement/FHIR/TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.optionContratAccesAuxSoins</t>
@@ -671,7 +671,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="110.74609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
   </si>
   <si>
     <t>Base</t>
@@ -568,39 +568,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -608,26 +610,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -685,112 +687,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -802,95 +804,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -902,23 +904,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -932,65 +934,65 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1002,23 +1004,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>81</v>
@@ -1032,26 +1034,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>83</v>
@@ -1061,34 +1063,34 @@
         <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1100,23 +1102,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>81</v>
@@ -1130,26 +1132,26 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>83</v>
@@ -1159,34 +1161,34 @@
         <v>87</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1198,23 +1200,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1228,65 +1230,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1298,23 +1300,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>81</v>
@@ -1328,26 +1330,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>83</v>
@@ -1357,34 +1359,34 @@
         <v>93</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1396,23 +1398,23 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>95</v>
@@ -1426,65 +1428,65 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1496,23 +1498,23 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>95</v>
@@ -1526,65 +1528,65 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1596,23 +1598,23 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>100</v>
@@ -1626,65 +1628,65 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1696,7 +1698,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1706,13 +1708,13 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>103</v>
@@ -1726,50 +1728,50 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>102</v>
@@ -1781,10 +1783,10 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SituationOperationnelle</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SituationOperationnelle</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,7 +285,7 @@
     <t>SituationOperationnelle.precisionHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Horaire
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Horaire
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>SituationOperationnelle.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -330,7 +330,7 @@
     <t>SituationOperationnelle.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
